--- a/app/knowledge_base.xlsx
+++ b/app/knowledge_base.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Сибирская язва</t>
   </si>
@@ -109,6 +109,48 @@
   </si>
   <si>
     <t>F14</t>
+  </si>
+  <si>
+    <t>Потеря аппетита</t>
+  </si>
+  <si>
+    <t>Потеря способности жевать жвачку</t>
+  </si>
+  <si>
+    <t>Слюноточение</t>
+  </si>
+  <si>
+    <t>Стоматит</t>
+  </si>
+  <si>
+    <t>Кровоизлияние слизистой оболочки полости рта</t>
+  </si>
+  <si>
+    <t>Поражение полости рта</t>
+  </si>
+  <si>
+    <t>Язвы полости рта</t>
+  </si>
+  <si>
+    <t>Туберкулы во рту</t>
+  </si>
+  <si>
+    <t>Тимпания желудка</t>
+  </si>
+  <si>
+    <t>Атония желудка</t>
+  </si>
+  <si>
+    <t>Болезни брюшной стенки</t>
+  </si>
+  <si>
+    <t>Диарея</t>
+  </si>
+  <si>
+    <t>Запор</t>
+  </si>
+  <si>
+    <t>Экскременты с примесью крови</t>
   </si>
 </sst>
 </file>
@@ -426,92 +468,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
       <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
       <c r="L2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>5</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
       <c r="O2">
         <v>1</v>
       </c>
@@ -521,243 +563,285 @@
       <c r="Q2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="D3">
         <v>1</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="F4">
+      <c r="D4">
         <v>8</v>
       </c>
       <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="P4">
-        <v>8</v>
+      <c r="L4">
+        <v>10</v>
       </c>
       <c r="Q4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="F5">
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="G5">
         <v>6</v>
       </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="Q5">
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="R5">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="G6">
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="F7">
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="K7">
-        <v>10</v>
-      </c>
       <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="K8">
-        <v>8</v>
-      </c>
-      <c r="Q8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="L9">
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="M9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="D11">
         <v>1</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>4</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-      <c r="O12">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="P12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>4</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>10</v>
-      </c>
-      <c r="N13">
-        <v>8</v>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
       </c>
       <c r="O13">
+        <v>8</v>
+      </c>
+      <c r="P13">
         <v>6</v>
-      </c>
-      <c r="P13">
-        <v>12</v>
       </c>
       <c r="Q13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="F14">
+      <c r="C14">
         <v>1</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
-        <v>8</v>
-      </c>
-      <c r="G15">
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="H15">
         <v>2</v>
       </c>
-      <c r="K15">
-        <v>10</v>
-      </c>
-      <c r="N15">
-        <v>8</v>
+      <c r="L15">
+        <v>10</v>
       </c>
       <c r="O15">
+        <v>8</v>
+      </c>
+      <c r="P15">
         <v>6</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>12</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>12</v>
       </c>
     </row>
